--- a/Analysis/Formal Analysis NAV3/10 x 10 CA 15 Analysis.xlsx
+++ b/Analysis/Formal Analysis NAV3/10 x 10 CA 15 Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdsup\Documents\GitHub\ESC190-snek\Analysis\Formal Analysis NAV3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{822D86F5-0596-4FDB-BD0A-29D7584223CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0FFE92-8E06-4707-897A-1AF37EC49090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B10CA15NAV4_output" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">B10CA15NAV4_output!$C$2:$C$301</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">B10CA15NAV4_output!$B$2:$B$301</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">B10CA15NAV4_output!$D$2:$D$301</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">B10CA15NAV4_output!$B$2:$B$301</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">B10CA15NAV4_output!$D$2:$D$301</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">B10CA15NAV4_output!$C$2:$C$301</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -971,7 +979,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1520,7 +1528,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1610,7 +1618,7 @@
   <cx:printSettings>
     <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
     <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="landscape" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   </cx:printSettings>
 </cx:chartSpace>
 </file>
@@ -1696,7 +1704,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3591,8 +3599,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5204172" y="646418"/>
-              <a:ext cx="4572000" cy="2752805"/>
+              <a:off x="5200970" y="644496"/>
+              <a:ext cx="4572000" cy="2743202"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3669,8 +3677,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5212336" y="3681934"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5209134" y="3669768"/>
+              <a:ext cx="4572000" cy="2733595"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3747,8 +3755,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5199530" y="6981586"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5196328" y="6957893"/>
+              <a:ext cx="4572000" cy="2733595"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4077,16 +4085,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E308"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D308" sqref="A302:D308"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.15234375" customWidth="1"/>
+    <col min="3" max="3" width="8.69140625" customWidth="1"/>
+    <col min="4" max="4" width="9.84375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
